--- a/BurndownChart.xlsx
+++ b/BurndownChart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lufee\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lufee\OneDrive\Documents\GitHub\GROUP-44\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -507,6 +507,21 @@
                 <c:pt idx="13">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -597,6 +612,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1728,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1911,40 +1927,55 @@
       <c r="B16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>

--- a/BurndownChart.xlsx
+++ b/BurndownChart.xlsx
@@ -2,45 +2,61 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lufee\OneDrive\Documents\GitHub\GROUP-44\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9282177a4ccb02f7/Documents/GitHub/GROUP-44/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="4020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Burn down chart" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Timeline (days)</t>
+    <t>Sprint Days Remaining</t>
+  </si>
+  <si>
+    <t>Sprints completed</t>
+  </si>
+  <si>
+    <t>Release Burndown</t>
+  </si>
+  <si>
+    <t>Sprint 1 Burndown</t>
+  </si>
+  <si>
+    <t>Tasks to Complete</t>
   </si>
   <si>
     <t>Estimated Tasks to Complete</t>
   </si>
   <si>
-    <t>Tasks to Complete</t>
+    <t>Story Points to Complete</t>
+  </si>
+  <si>
+    <t>Expected Story Points to Complete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,11 +65,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,15 +104,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -131,13 +201,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>BURNDOWN</a:t>
+              <a:t>Sprint 1 Burn</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> CHART</a:t>
+              <a:t> Down C</a:t>
             </a:r>
-            <a:endParaRPr lang="en-AU"/>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>hart</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -178,15 +251,198 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'Burn down chart'!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Estimated Tasks to Complete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$13:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down chart'!$B$13:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-420C-4A71-9971-542ECB6C951A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn down chart'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tasks to Complete</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -201,88 +457,92 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="20"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>14</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>15</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>16</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>17</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>18</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>19</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>20</c:v>
-              </c:pt>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:autoCat val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:strLit>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$13:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$2:$B$29</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>'Burn down chart'!$C$13:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -352,183 +612,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E63D-4963-A03D-F85249D1B9B5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tasks to Complete</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="20"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>14</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>15</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>16</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>17</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>18</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>19</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>20</c:v>
-              </c:pt>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:autoCat val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$C$2:$C$29</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$C$2:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E63D-4963-A03D-F85249D1B9B5}"/>
+              <c16:uniqueId val="{00000005-420C-4A71-9971-542ECB6C951A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -540,12 +624,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="377756248"/>
-        <c:axId val="377761496"/>
+        <c:axId val="590107240"/>
+        <c:axId val="590108552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="377756248"/>
+        <c:axId val="590107240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,11 +657,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU"/>
-                  <a:t>Timelne</a:t>
+                  <a:t>Days</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t> (days)</a:t>
+                  <a:t> Remaning</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-AU"/>
               </a:p>
@@ -612,7 +697,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -649,7 +734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377761496"/>
+        <c:crossAx val="590108552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -657,11 +742,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377761496"/>
+        <c:axId val="590108552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -702,6 +785,11 @@
                   <a:rPr lang="en-AU"/>
                   <a:t>Tasks</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Remaining</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -766,10 +854,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377756248"/>
+        <c:crossAx val="590107240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -780,7 +867,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -828,7 +915,582 @@
       </a:solidFill>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
+    <a:effectLst>
+      <a:outerShdw dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="43137"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Release Burndown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn down chart'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected Story Points to Complete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down chart'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DFFC-4379-83D1-635B95F1AFF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn down chart'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Story Points to Complete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down chart'!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DFFC-4379-83D1-635B95F1AFF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="590107240"/>
+        <c:axId val="590108552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="590107240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Sprints Completed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590108552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="590108552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Story Points</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Remaining</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590107240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="43137"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -888,6 +1550,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1404,31 +2106,549 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DED219-20A9-4227-B488-B851877703BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1437,6 +2657,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1462,7 +2720,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1474,7 +2732,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1521,23 +2779,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1573,23 +2814,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1742,250 +2966,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="29.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="29.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="6">
+        <v>100</v>
+      </c>
+      <c r="C3" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4" s="6">
+        <v>66</v>
+      </c>
+      <c r="C4" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="B5" s="6">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>45</v>
-      </c>
-      <c r="C2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>38</v>
-      </c>
-      <c r="C4">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>34</v>
-      </c>
-      <c r="C5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B32" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
+      <c r="C32" s="1">
         <v>1</v>
       </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="64" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="101" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A101" s="4"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/BurndownChart.xlsx
+++ b/BurndownChart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9282177a4ccb02f7/Documents/GitHub/GROUP-44/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lufee\OneDrive\Documents\GitHub\GROUP-44\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Sprint Days Remaining</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Expected Story Points to Complete</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Sprint 2 Burndown</t>
   </si>
 </sst>
 </file>
@@ -111,14 +117,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -364,22 +370,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>26</c:v>
@@ -547,61 +553,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1</c:v>
@@ -1510,6 +1516,782 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 2 Burn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Down C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>hart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn down chart'!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated Tasks to Complete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$37:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down chart'!$B$37:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F20D-4B4C-B110-02D30D11D9E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn down chart'!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tasks to Complete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$37:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down chart'!$C$37:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F20D-4B4C-B110-02D30D11D9E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="590107240"/>
+        <c:axId val="590108552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="590107240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Days</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Remaning</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590108552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="590108552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Remaining</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590107240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="43137"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1590,6 +2372,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2107,6 +2929,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2695,6 +4033,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>386861</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>17585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1139335</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>41032</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2964,12 +4340,264 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2980,13 +4608,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3000,51 +4628,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>100</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>66</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>35</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -3062,10 +4695,10 @@
         <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3073,10 +4706,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="1">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3084,10 +4717,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3095,10 +4728,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3106,10 +4739,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3117,10 +4750,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3131,7 +4764,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3142,7 +4775,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3153,7 +4786,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3164,7 +4797,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3175,7 +4808,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3186,7 +4819,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3197,7 +4830,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3208,7 +4841,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3219,7 +4852,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3230,7 +4863,7 @@
         <v>10</v>
       </c>
       <c r="C28" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3241,7 +4874,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3252,7 +4885,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3263,7 +4896,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3278,46 +4911,264 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>20</v>
+      </c>
+      <c r="B37" s="1">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45</v>
+      </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1">
+        <v>41</v>
+      </c>
+      <c r="C38" s="1">
+        <v>41</v>
+      </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>18</v>
+      </c>
+      <c r="B39" s="1">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1">
+        <v>38</v>
+      </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>17</v>
+      </c>
+      <c r="B40" s="1">
+        <v>35</v>
+      </c>
+      <c r="C40" s="1">
+        <v>34</v>
+      </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1">
+        <v>32</v>
+      </c>
+      <c r="C41" s="1">
+        <v>30</v>
+      </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>15</v>
+      </c>
+      <c r="B42" s="1">
+        <v>28</v>
+      </c>
+      <c r="C42" s="1">
+        <v>28</v>
+      </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>14</v>
+      </c>
+      <c r="B43" s="1">
+        <v>26</v>
+      </c>
+      <c r="C43" s="1">
+        <v>25</v>
+      </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1">
+        <v>24</v>
+      </c>
+      <c r="C44" s="1">
+        <v>23</v>
+      </c>
       <c r="D44" s="2"/>
     </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1">
+        <v>22</v>
+      </c>
+      <c r="C45" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>10</v>
+      </c>
+      <c r="B47" s="1">
+        <v>17</v>
+      </c>
+      <c r="C47" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1">
+        <v>15</v>
+      </c>
+      <c r="C48" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>8</v>
+      </c>
+      <c r="B49" s="1">
+        <v>13</v>
+      </c>
+      <c r="C49" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>7</v>
+      </c>
+      <c r="B50" s="1">
+        <v>12</v>
+      </c>
+      <c r="C50" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <v>11</v>
+      </c>
+      <c r="C51" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>4</v>
+      </c>
+      <c r="B53" s="1">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="64" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="2"/>
@@ -3365,9 +5216,9 @@
       <c r="D80" s="2"/>
     </row>
     <row r="101" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D103" s="2"/>
@@ -3415,12 +5266,13 @@
       <c r="D117" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BurndownChart.xlsx
+++ b/BurndownChart.xlsx
@@ -424,10 +424,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1097,10 +1097,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1184,7 +1184,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1715,64 +1718,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1898,61 +1901,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1</c:v>
@@ -4596,8 +4599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4643,10 +4646,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4654,9 +4657,11 @@
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <v>35</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="C5" s="4">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4893,7 +4898,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
@@ -4904,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -4942,10 +4947,10 @@
         <v>20</v>
       </c>
       <c r="B37" s="1">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2"/>
     </row>
@@ -4954,10 +4959,10 @@
         <v>19</v>
       </c>
       <c r="B38" s="1">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D38" s="2"/>
     </row>
@@ -4966,10 +4971,10 @@
         <v>18</v>
       </c>
       <c r="B39" s="1">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C39" s="1">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -4978,10 +4983,10 @@
         <v>17</v>
       </c>
       <c r="B40" s="1">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C40" s="1">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -4990,10 +4995,10 @@
         <v>16</v>
       </c>
       <c r="B41" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D41" s="2"/>
     </row>
@@ -5002,10 +5007,10 @@
         <v>15</v>
       </c>
       <c r="B42" s="1">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C42" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -5014,10 +5019,10 @@
         <v>14</v>
       </c>
       <c r="B43" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C43" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -5026,10 +5031,10 @@
         <v>13</v>
       </c>
       <c r="B44" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C44" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -5038,10 +5043,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C45" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5049,10 +5054,10 @@
         <v>11</v>
       </c>
       <c r="B46" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C46" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5063,7 +5068,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5071,10 +5076,10 @@
         <v>9</v>
       </c>
       <c r="B48" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C48" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5082,10 +5087,10 @@
         <v>8</v>
       </c>
       <c r="B49" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C49" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -5093,10 +5098,10 @@
         <v>7</v>
       </c>
       <c r="B50" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C50" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5104,10 +5109,10 @@
         <v>6</v>
       </c>
       <c r="B51" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C51" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5115,10 +5120,10 @@
         <v>5</v>
       </c>
       <c r="B52" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C52" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -5126,10 +5131,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C53" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5137,10 +5142,10 @@
         <v>3</v>
       </c>
       <c r="B54" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C54" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -5148,10 +5153,10 @@
         <v>2</v>
       </c>
       <c r="B55" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -5159,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
